--- a/target/test-classes/BestBuyEcommerce.xlsx
+++ b/target/test-classes/BestBuyEcommerce.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanjalinkirthika/Documents/backup/BestbuyEcommerce/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13A0408-3A46-A34D-997C-DE509266A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342BE361-9622-EB4F-947C-C0B126A269B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13160" activeTab="1" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13160" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateAccountData" sheetId="6" r:id="rId1"/>
+    <sheet name="CreateAccountData" sheetId="7" r:id="rId1"/>
     <sheet name="TopMenuData" sheetId="4" r:id="rId2"/>
     <sheet name="BottomMenuData" sheetId="5" r:id="rId3"/>
     <sheet name="SignInTestData" sheetId="3" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>//p[text()='Please enter your last name.']</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>//div[text()='Sorry, something went wrong. Please try again.']</t>
-  </si>
-  <si>
-    <t>Sorry, there was a problem creating your account.</t>
-  </si>
-  <si>
-    <t>//strong[text() = 'Sorry, there was a problem creating your account.']</t>
   </si>
   <si>
     <t>Top Deals</t>
@@ -647,11 +641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1161EF-BD95-BB49-A6E2-213431114D7D}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00CCF77-5E90-C342-9FB8-D379215ED275}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,32 +896,6 @@
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -939,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F813BEB8-3789-FF4B-A46D-3764CFCFFBD1}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,90 +919,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1058,106 +1026,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/BestBuyEcommerce.xlsx
+++ b/target/test-classes/BestBuyEcommerce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanjalinkirthika/Documents/backup/BestbuyEcommerce/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342BE361-9622-EB4F-947C-C0B126A269B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157191B-63E1-F84A-B935-A5E4315529C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13160" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13160" activeTab="1" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccountData" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>//p[text()='Please enter your last name.']</t>
   </si>
@@ -128,12 +128,6 @@
     <t>Credit Cards</t>
   </si>
   <si>
-    <t>Gift Cards</t>
-  </si>
-  <si>
-    <t>Gift Ideas</t>
-  </si>
-  <si>
     <t>Yardbird</t>
   </si>
   <si>
@@ -155,13 +149,7 @@
     <t>Yes, Best Buy Sells That – Best Buy</t>
   </si>
   <si>
-    <t>Gifts Cards and E-Gift Cards - Best Buy</t>
-  </si>
-  <si>
     <t>Best Buy Credit Card: Rewards &amp; Financing</t>
-  </si>
-  <si>
-    <t>Gift Ideas 2024: Best Gifts to Give This Year - Best Buy</t>
   </si>
   <si>
     <t>Yardbird: Beautiful, High-Quality Outdoor Furniture</t>
@@ -644,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00CCF77-5E90-C342-9FB8-D379215ED275}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -905,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F813BEB8-3789-FF4B-A46D-3764CFCFFBD1}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -930,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -954,7 +942,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -962,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -970,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +966,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,23 +974,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1026,106 +998,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/BestBuyEcommerce.xlsx
+++ b/target/test-classes/BestBuyEcommerce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanjalinkirthika/Documents/backup/BestbuyEcommerce/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanjalinmuthuraj/Documents/seleniumproject/BestBuyEcommerce/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157191B-63E1-F84A-B935-A5E4315529C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4C3DFE-E8E5-0D47-ADC8-CACD9492555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13160" activeTab="1" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27320" windowHeight="13160" activeTab="2" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccountData" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>//p[text()='Please enter your last name.']</t>
   </si>
@@ -179,30 +179,6 @@
     <t>My Best Buy® Credit Card</t>
   </si>
   <si>
-    <t>Protection &amp; Support Plans</t>
-  </si>
-  <si>
-    <t>Haul Away &amp; Recycling</t>
-  </si>
-  <si>
-    <t>Developers</t>
-  </si>
-  <si>
-    <t>Best Buy Education</t>
-  </si>
-  <si>
-    <t>Careers</t>
-  </si>
-  <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>Terms &amp; Conditions</t>
-  </si>
-  <si>
-    <t>Privacy</t>
-  </si>
-  <si>
     <t>Best Buy Shipping Delivery and Store Pickup</t>
   </si>
   <si>
@@ -213,37 +189,13 @@
   </si>
   <si>
     <t>Trade-In - Best Buy</t>
-  </si>
-  <si>
-    <t>Services - Best Buy</t>
-  </si>
-  <si>
-    <t>Electronics and Appliances Recycling at Best Buy</t>
-  </si>
-  <si>
-    <t>Best Buy Developer Portal</t>
-  </si>
-  <si>
-    <t>Best Buy Education - Best Buy</t>
-  </si>
-  <si>
-    <t>Best Buy Jobs - Best Buy  Jobs</t>
-  </si>
-  <si>
-    <t>Environmental Sustainability - Best Buy Corporate News and Information</t>
-  </si>
-  <si>
-    <t>BestBuy.com Terms and Conditions</t>
-  </si>
-  <si>
-    <t>Privacy Policy Hub - Best Buy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +222,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1B20"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,11 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F813BEB8-3789-FF4B-A46D-3764CFCFFBD1}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,10 +943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0BDEC2-7F6E-704E-BF40-5BC31EC5C7A8}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1009,7 +968,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1017,7 +976,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,7 +984,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,72 +995,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/BestBuyEcommerce.xlsx
+++ b/target/test-classes/BestBuyEcommerce.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanjalinmuthuraj/Documents/seleniumproject/BestBuyEcommerce/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4C3DFE-E8E5-0D47-ADC8-CACD9492555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D6F3BC-8EAC-934D-A0CF-44E0A738DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27320" windowHeight="13160" activeTab="2" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27320" windowHeight="13160" activeTab="1" xr2:uid="{A846517B-19E9-7744-9564-B0F54083681C}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccountData" sheetId="7" r:id="rId1"/>
-    <sheet name="TopMenuData" sheetId="4" r:id="rId2"/>
+    <sheet name="TopMenuData" sheetId="8" r:id="rId2"/>
     <sheet name="BottomMenuData" sheetId="5" r:id="rId3"/>
     <sheet name="SignInTestData" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>//p[text()='Please enter your last name.']</t>
   </si>
@@ -189,6 +189,42 @@
   </si>
   <si>
     <t>Trade-In - Best Buy</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>Best Buy Developer Portal</t>
+  </si>
+  <si>
+    <t>Best Buy Education</t>
+  </si>
+  <si>
+    <t>Best Buy Education - Best Buy</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>Best Buy Jobs - Best Buy  Jobs</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Environmental Sustainability - Best Buy Corporate News and Information</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>BestBuy.com Terms and Conditions</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Privacy Policy Hub - Best Buy</t>
   </si>
 </sst>
 </file>
@@ -851,17 +887,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F813BEB8-3789-FF4B-A46D-3764CFCFFBD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0E84C0-0E07-1043-A0B7-35EEFD3C61C6}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -943,10 +979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0BDEC2-7F6E-704E-BF40-5BC31EC5C7A8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,8 +1031,53 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
